--- a/Excel Output/Section_7.xlsx
+++ b/Excel Output/Section_7.xlsx
@@ -508,13 +508,13 @@
         <v>5.367585574295084e-08</v>
       </c>
       <c r="F2">
-        <v>0.001691755216239602</v>
+        <v>5.639184054132007e-05</v>
       </c>
       <c r="G2">
         <v>288.8380151009035</v>
       </c>
       <c r="H2">
-        <v>0.9615738906450626</v>
+        <v>0.9959593620854891</v>
       </c>
       <c r="I2">
         <v>2243.90404453724</v>
@@ -523,19 +523,19 @@
         <v>1.503719234532486e-07</v>
       </c>
       <c r="K2">
-        <v>7.52383107342236e-06</v>
+        <v>2.006354952912629e-06</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.9999974455301712</v>
       </c>
       <c r="M2">
-        <v>0.9999990595211158</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>3.859594937755282e-07</v>
+        <v>2.261481408840985e-07</v>
       </c>
       <c r="O2">
-        <v>2.468414312578474e-08</v>
+        <v>2.75826949217156e-06</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>0.9615738906450626</v>
+        <v>0.9959568179373479</v>
       </c>
       <c r="X2">
-        <v>-5.03915146393095e-06</v>
+        <v>-1.182688596317549e-06</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -582,13 +582,13 @@
         <v>3.785790525616838e-08</v>
       </c>
       <c r="F3">
-        <v>0.001193205172167909</v>
+        <v>3.97735057389303e-05</v>
       </c>
       <c r="G3">
         <v>409.5215392064057</v>
       </c>
       <c r="H3">
-        <v>0.9692852559339465</v>
+        <v>0.9968058645164588</v>
       </c>
       <c r="I3">
         <v>2039.228160405775</v>
@@ -597,19 +597,19 @@
         <v>1.63974051406698e-07</v>
       </c>
       <c r="K3">
-        <v>8.204411002245622e-06</v>
+        <v>2.187842933932166e-06</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.9999972144681223</v>
       </c>
       <c r="M3">
-        <v>0.9999989744486247</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>4.208720645442029e-07</v>
+        <v>2.466047253188689e-07</v>
       </c>
       <c r="O3">
-        <v>2.468414312604811e-08</v>
+        <v>2.758269492233434e-06</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>0.9692852559339465</v>
+        <v>0.9968030878819473</v>
       </c>
       <c r="X3">
-        <v>-0.0004245471036705762</v>
+        <v>-0.0001055136350370737</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -656,13 +656,13 @@
         <v>2.67289016617397e-08</v>
       </c>
       <c r="F4">
-        <v>0.0008424413208641208</v>
+        <v>2.808137736213737e-05</v>
       </c>
       <c r="G4">
         <v>580.0323495457563</v>
       </c>
       <c r="H4">
-        <v>0.9754973192180094</v>
+        <v>0.9974734262816082</v>
       </c>
       <c r="I4">
         <v>1853.221620735355</v>
@@ -671,19 +671,19 @@
         <v>1.789906847856156e-07</v>
       </c>
       <c r="K4">
-        <v>8.955765445547791e-06</v>
+        <v>2.388204118812744e-06</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.9999969593786205</v>
       </c>
       <c r="M4">
-        <v>0.9999988805293193</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>4.594152452393791e-07</v>
+        <v>2.691886202574486e-07</v>
       </c>
       <c r="O4">
-        <v>2.468414312636535e-08</v>
+        <v>2.758269492307962e-06</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>0.9754973192180094</v>
+        <v>0.9974703933425828</v>
       </c>
       <c r="X4">
-        <v>-0.01487861923442979</v>
+        <v>-0.003925660909393355</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -730,13 +730,13 @@
         <v>1.889490010158615e-08</v>
       </c>
       <c r="F5">
-        <v>0.0005955293188107677</v>
+        <v>1.985097729369226e-05</v>
       </c>
       <c r="G5">
         <v>820.5191638104975</v>
       </c>
       <c r="H5">
-        <v>0.9804795394524678</v>
+        <v>0.9979997838806177</v>
       </c>
       <c r="I5">
         <v>1684.181516440797</v>
@@ -745,19 +745,19 @@
         <v>1.956251490276788e-07</v>
       </c>
       <c r="K5">
-        <v>9.788067753585233e-06</v>
+        <v>2.610151400956063e-06</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.9999966768080434</v>
       </c>
       <c r="M5">
-        <v>0.9999987764915308</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>5.021109110967751e-07</v>
+        <v>2.942056119707667e-07</v>
       </c>
       <c r="O5">
-        <v>2.46841431267492e-08</v>
+        <v>2.758269492398139e-06</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -781,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>0.9804795394524678</v>
+        <v>0.9979964673357632</v>
       </c>
       <c r="X5">
-        <v>-0.2775521846964902</v>
+        <v>-0.07796033822809212</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -804,13 +804,13 @@
         <v>1.337698695977072e-08</v>
       </c>
       <c r="F6">
-        <v>0.0004216157740481536</v>
+        <v>1.405385913493846e-05</v>
       </c>
       <c r="G6">
         <v>1158.977554382103</v>
       </c>
       <c r="H6">
-        <v>0.98446042298756</v>
+        <v>0.9984148010193946</v>
       </c>
       <c r="I6">
         <v>1530.560267905421</v>
@@ -819,19 +819,19 @@
         <v>2.141258788883885e-07</v>
       </c>
       <c r="K6">
-        <v>1.071374831289707e-05</v>
+        <v>2.856999550105886e-06</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.9999963625365788</v>
       </c>
       <c r="M6">
-        <v>0.9999986607814609</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>5.495967194015237e-07</v>
+        <v>3.220293277743303e-07</v>
       </c>
       <c r="O6">
-        <v>2.468414312721615e-08</v>
+        <v>2.75826949250784e-06</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -855,10 +855,10 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>0.98446042298756</v>
+        <v>0.9984111693220766</v>
       </c>
       <c r="X6">
-        <v>-2.905943358343899</v>
+        <v>-0.8716203922736193</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -878,13 +878,13 @@
         <v>9.487602955131187e-09</v>
       </c>
       <c r="F7">
-        <v>0.0002990301983412973</v>
+        <v>9.967673278043243e-06</v>
       </c>
       <c r="G7">
         <v>1634.093216690894</v>
       </c>
       <c r="H7">
-        <v>0.9876314549625922</v>
+        <v>0.9987420685441371</v>
       </c>
       <c r="I7">
         <v>1390.95145672979</v>
@@ -893,19 +893,19 @@
         <v>2.348000179484226e-07</v>
       </c>
       <c r="K7">
-        <v>1.174817499511279e-05</v>
+        <v>3.132846665363411e-06</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.9999960113472417</v>
       </c>
       <c r="M7">
-        <v>0.9999985314781256</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>6.026610153326486e-07</v>
+        <v>3.531216886714738e-07</v>
       </c>
       <c r="O7">
-        <v>2.468414312778784e-08</v>
+        <v>2.758269492642148e-06</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -929,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>0.9876314549625922</v>
+        <v>0.9987380849088305</v>
       </c>
       <c r="X7">
-        <v>-16.18735784755721</v>
+        <v>-5.202254843826929</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -952,13 +952,13 @@
         <v>6.743738211120288e-09</v>
       </c>
       <c r="F8">
-        <v>0.000212549090046233</v>
+        <v>7.084969668207766e-06</v>
       </c>
       <c r="G8">
         <v>2298.966410954563</v>
       </c>
       <c r="H8">
-        <v>0.9901512638134564</v>
+        <v>0.9990001980037907</v>
       </c>
       <c r="I8">
         <v>1264.076949825984</v>
@@ -967,19 +967,19 @@
         <v>2.580317192880479e-07</v>
       </c>
       <c r="K8">
-        <v>1.291056882777454e-05</v>
+        <v>3.44281835407321e-06</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.9999956167150462</v>
       </c>
       <c r="M8">
-        <v>0.9999983861788966</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>6.622898042892105e-07</v>
+        <v>3.880604322007092e-07</v>
       </c>
       <c r="O8">
-        <v>2.468414312849309e-08</v>
+        <v>2.758269492807831e-06</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -1003,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0.9901512638134564</v>
+        <v>0.998995819101254</v>
       </c>
       <c r="X8">
-        <v>-36.47366277354428</v>
+        <v>-11.9517360493364</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1026,13 +1026,13 @@
         <v>4.806003878107212e-09</v>
       </c>
       <c r="F9">
-        <v>0.0001514755939615068</v>
+        <v>5.04918646538356e-06</v>
       </c>
       <c r="G9">
         <v>3225.887457615259</v>
       </c>
       <c r="H9">
-        <v>0.9921499131219008</v>
+        <v>0.9992038597232242</v>
       </c>
       <c r="I9">
         <v>1148.775197977145</v>
@@ -1041,19 +1041,19 @@
         <v>2.843068211189093e-07</v>
       </c>
       <c r="K9">
-        <v>1.422523863495988e-05</v>
+        <v>3.793396969322636e-06</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.9999951703879085</v>
       </c>
       <c r="M9">
-        <v>0.9999982218451706</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>7.297300868143766e-07</v>
+        <v>4.275762227427988e-07</v>
       </c>
       <c r="O9">
-        <v>2.468414312937085e-08</v>
+        <v>2.758269493014043e-06</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>0.9921499131219008</v>
+        <v>0.9991990339561815</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1097,13 +1097,13 @@
         <v>3.435864251838654e-09</v>
       </c>
       <c r="F10">
-        <v>0.0001082915435605809</v>
+        <v>3.609718118686032e-06</v>
       </c>
       <c r="G10">
         <v>4512.293413029868</v>
       </c>
       <c r="H10">
-        <v>0.9937331116602302</v>
+        <v>0.9993646111311261</v>
       </c>
       <c r="I10">
         <v>1043.990601734412</v>
@@ -1112,19 +1112,19 @@
         <v>3.142461232563716e-07</v>
       </c>
       <c r="K10">
-        <v>1.572324601935337e-05</v>
+        <v>4.1928656051609e-06</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.9999946618214803</v>
       </c>
       <c r="M10">
-        <v>0.9999980345942476</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>8.06575269289948e-07</v>
+        <v>4.726026968495788e-07</v>
       </c>
       <c r="O10">
-        <v>2.468414313047469e-08</v>
+        <v>2.758269493273368e-06</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="W10">
-        <v>0.9937331116602302</v>
+        <v>0.9993592763444256</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1168,13 +1168,13 @@
         <v>2.465614566222241e-09</v>
       </c>
       <c r="F11">
-        <v>7.771122129134602e-05</v>
+        <v>2.590374043044868e-06</v>
       </c>
       <c r="G11">
         <v>6287.936421218773</v>
       </c>
       <c r="H11">
-        <v>0.9949861529362889</v>
+        <v>0.9994915548963307</v>
       </c>
       <c r="I11">
         <v>948.7638472949203</v>
@@ -1183,19 +1183,19 @@
         <v>3.486501754466912e-07</v>
       </c>
       <c r="K11">
-        <v>1.744464633782206e-05</v>
+        <v>4.651905690085883e-06</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.9999940774184831</v>
       </c>
       <c r="M11">
-        <v>0.9999978194192077</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>8.948801220993288e-07</v>
+        <v>5.243438215425754e-07</v>
       </c>
       <c r="O11">
-        <v>2.468414313187951e-08</v>
+        <v>2.758269493603398e-06</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="W11">
-        <v>0.9949861529362889</v>
+        <v>0.9994856353261213</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1239,13 +1239,13 @@
         <v>1.777304497156777e-09</v>
       </c>
       <c r="F12">
-        <v>5.601706972889677e-05</v>
+        <v>1.867235657629892e-06</v>
       </c>
       <c r="G12">
         <v>8723.112812935602</v>
       </c>
       <c r="H12">
-        <v>0.9959774594874261</v>
+        <v>0.9995918601609285</v>
       </c>
       <c r="I12">
         <v>862.2231238848399</v>
@@ -1254,19 +1254,19 @@
         <v>3.885593017498834e-07</v>
       </c>
       <c r="K12">
-        <v>1.944149201018889e-05</v>
+        <v>5.184397869383705e-06</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.9999933995093079</v>
       </c>
       <c r="M12">
-        <v>0.9999975698134987</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>9.973148441622721e-07</v>
+        <v>5.843641665013312e-07</v>
       </c>
       <c r="O12">
-        <v>2.468414313369179e-08</v>
+        <v>2.758269494029156e-06</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="W12">
-        <v>0.9959774594874261</v>
+        <v>0.9995852623641596</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1310,13 +1310,13 @@
         <v>1.287940625483673e-09</v>
       </c>
       <c r="F13">
-        <v>4.059330291450543e-05</v>
+        <v>1.353110097150181e-06</v>
       </c>
       <c r="G13">
         <v>12037.53288379588</v>
       </c>
       <c r="H13">
-        <v>0.9967616730180568</v>
+        <v>0.9996711743436828</v>
       </c>
       <c r="I13">
         <v>783.5761422416842</v>
@@ -1325,19 +1325,19 @@
         <v>4.353334933163737e-07</v>
       </c>
       <c r="K13">
-        <v>2.178182993937408e-05</v>
+        <v>5.808487983833088e-06</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.9999926049952353</v>
       </c>
       <c r="M13">
-        <v>0.9999972772712575</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>1.11737012365981e-06</v>
+        <v>6.5470905683192e-07</v>
       </c>
       <c r="O13">
-        <v>2.468414313606556e-08</v>
+        <v>2.758269494586825e-06</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="W13">
-        <v>0.9967616730180568</v>
+        <v>0.9996637817705855</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1381,13 +1381,13 @@
         <v>9.390963302072559e-10</v>
       </c>
       <c r="F14">
-        <v>2.959843104854899e-05</v>
+        <v>9.866143682849665e-07</v>
       </c>
       <c r="G14">
         <v>16509.09191415405</v>
       </c>
       <c r="H14">
-        <v>0.9973822826691457</v>
+        <v>0.9997339478617285</v>
       </c>
       <c r="I14">
         <v>712.1028811242669</v>
@@ -1396,19 +1396,19 @@
         <v>4.907577335573345e-07</v>
       </c>
       <c r="K14">
-        <v>2.455497143659922e-05</v>
+        <v>6.547992383093125e-06</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.9999916635598318</v>
       </c>
       <c r="M14">
-        <v>0.9999969306285704</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>1.2596274760634e-06</v>
+        <v>7.380629742558985e-07</v>
       </c>
       <c r="O14">
-        <v>2.468414313922723e-08</v>
+        <v>2.758269495329592e-06</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="W14">
-        <v>0.9973822826691457</v>
+        <v>0.9997256136394881</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1452,13 +1452,13 @@
         <v>6.896156232966538e-10</v>
       </c>
       <c r="F15">
-        <v>2.173530001085551e-05</v>
+        <v>7.245100003618504e-07</v>
       </c>
       <c r="G15">
         <v>22481.54929774136</v>
       </c>
       <c r="H15">
-        <v>0.9978738170900756</v>
+        <v>0.9997836897522046</v>
       </c>
       <c r="I15">
         <v>647.1489954438608</v>
@@ -1467,19 +1467,19 @@
         <v>5.571791671282506e-07</v>
       </c>
       <c r="K15">
-        <v>2.787835544583211e-05</v>
+        <v>7.434228118888563e-06</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.999990535339716</v>
       </c>
       <c r="M15">
-        <v>0.9999965152055693</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>1.430111315653615e-06</v>
+        <v>8.3795584901579e-07</v>
       </c>
       <c r="O15">
-        <v>2.468414314351475e-08</v>
+        <v>2.758269496336855e-06</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="W15">
-        <v>0.9978738170900756</v>
+        <v>0.9997742271392236</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1523,13 +1523,13 @@
         <v>5.104890294133102e-10</v>
       </c>
       <c r="F16">
-        <v>1.60895893766254e-05</v>
+        <v>5.363196458875134e-07</v>
       </c>
       <c r="G16">
         <v>30370.14850143637</v>
       </c>
       <c r="H16">
-        <v>0.9982636442096431</v>
+        <v>0.9998231685484381</v>
       </c>
       <c r="I16">
         <v>588.1198256673173</v>
@@ -1538,19 +1538,19 @@
         <v>6.376831780500678e-07</v>
       </c>
       <c r="K16">
-        <v>3.190635857965526e-05</v>
+        <v>8.508362287908072e-06</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.9999891679348467</v>
       </c>
       <c r="M16">
-        <v>0.9999960117051775</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>1.636740895090659e-06</v>
+        <v>9.59027868217183e-07</v>
       </c>
       <c r="O16">
-        <v>2.468414314943988e-08</v>
+        <v>2.758269497728841e-06</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="W16">
-        <v>0.9982636442096431</v>
+        <v>0.9998123383987346</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1594,13 +1594,13 @@
         <v>3.812543930937494e-10</v>
       </c>
       <c r="F17">
-        <v>1.201637308437918e-05</v>
+        <v>4.005457694793062e-07</v>
       </c>
       <c r="G17">
         <v>40664.78422931654</v>
       </c>
       <c r="H17">
-        <v>0.9985734300073871</v>
+        <v>0.9998545698167759</v>
       </c>
       <c r="I17">
         <v>534.4749536476113</v>
@@ -1609,19 +1609,19 @@
         <v>7.363158903387759e-07</v>
       </c>
       <c r="K17">
-        <v>3.684142789666397e-05</v>
+        <v>9.824380772443726e-06</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.9999874926309509</v>
       </c>
       <c r="M17">
-        <v>0.9999953948215129</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>1.889901397599578e-06</v>
+        <v>1.107364100156002e-06</v>
       </c>
       <c r="O17">
-        <v>2.468414315778763e-08</v>
+        <v>2.758269499689973e-06</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -1645,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="W17">
-        <v>0.9985734300073871</v>
+        <v>0.9998420642666758</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1665,13 +1665,13 @@
         <v>2.874682951751665e-10</v>
       </c>
       <c r="F18">
-        <v>9.060423557941355e-06</v>
+        <v>3.020141185980452e-07</v>
       </c>
       <c r="G18">
         <v>53931.60877859362</v>
       </c>
       <c r="H18">
-        <v>0.9988203082720414</v>
+        <v>0.999879619414851</v>
       </c>
       <c r="I18">
         <v>485.7232550398801</v>
@@ -1680,19 +1680,19 @@
         <v>8.583611224937569e-07</v>
       </c>
       <c r="K18">
-        <v>4.294793826750577e-05</v>
+        <v>1.145278353800154e-05</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.9999854196980477</v>
       </c>
       <c r="M18">
-        <v>0.9999946315077166</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>2.20315479583052e-06</v>
+        <v>1.290911013181945e-06</v>
       </c>
       <c r="O18">
-        <v>2.468414316977589e-08</v>
+        <v>2.758269502506364e-06</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="W18">
-        <v>0.9988203082720414</v>
+        <v>0.999865040868084</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1736,13 +1736,13 @@
         <v>2.189290315033527e-10</v>
       </c>
       <c r="F19">
-        <v>6.900203562767079e-06</v>
+        <v>2.300067854255693e-07</v>
       </c>
       <c r="G19">
         <v>70815.768585716</v>
       </c>
       <c r="H19">
-        <v>0.9990178104646609</v>
+        <v>0.9998996797093951</v>
       </c>
       <c r="I19">
         <v>441.4184030073134</v>
@@ -1751,19 +1751,19 @@
         <v>1.010681254361173e-06</v>
       </c>
       <c r="K19">
-        <v>5.056924758465473e-05</v>
+        <v>1.348513268924126e-05</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.9999828326049627</v>
       </c>
       <c r="M19">
-        <v>0.9999936788440519</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>2.594114754560099e-06</v>
+        <v>1.519989114000058e-06</v>
       </c>
       <c r="O19">
-        <v>2.468414318731223e-08</v>
+        <v>2.758269506626161e-06</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="W19">
-        <v>0.9990178104646609</v>
+        <v>0.9998825140365958</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1807,13 +1807,13 @@
         <v>1.684270257958236e-10</v>
       </c>
       <c r="F20">
-        <v>5.308481727992328e-06</v>
+        <v>1.769493909330776e-07</v>
       </c>
       <c r="G20">
         <v>92049.5244654542</v>
       </c>
       <c r="H20">
-        <v>0.9991766004470065</v>
+        <v>0.9999158246029548</v>
       </c>
       <c r="I20">
         <v>401.1547820528561</v>
@@ -1822,19 +1822,19 @@
         <v>1.202135448287695e-06</v>
       </c>
       <c r="K20">
-        <v>6.01486223796393e-05</v>
+        <v>1.603963263457048e-05</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.9999795809223423</v>
       </c>
       <c r="M20">
-        <v>0.9999924814222025</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>3.085520078586936e-06</v>
+        <v>1.807921921047033e-06</v>
       </c>
       <c r="O20">
-        <v>2.468414321340816e-08</v>
+        <v>2.758269512756855e-06</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="W20">
-        <v>0.9991766004470065</v>
+        <v>0.9998954072440811</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1878,13 +1878,13 @@
         <v>1.308651919445982e-10</v>
       </c>
       <c r="F21">
-        <v>4.124608132131098e-06</v>
+        <v>1.374869377377033e-07</v>
       </c>
       <c r="G21">
         <v>118470.2165737075</v>
       </c>
       <c r="H21">
-        <v>0.9993050540328342</v>
+        <v>0.999928898160647</v>
       </c>
       <c r="I21">
         <v>364.563774567433</v>
@@ -1893,19 +1893,19 @@
         <v>1.444097578693565e-06</v>
       </c>
       <c r="K21">
-        <v>7.225515233238781e-05</v>
+        <v>1.926804062197008e-05</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.9999754715357068</v>
       </c>
       <c r="M21">
-        <v>0.9999909681059584</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>3.706564082146104e-06</v>
+        <v>2.171814891882482e-06</v>
       </c>
       <c r="O21">
-        <v>2.468414325284826e-08</v>
+        <v>2.758269522022482e-06</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="W21">
-        <v>0.9993050540328342</v>
+        <v>0.9999043714403727</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1949,13 +1949,13 @@
         <v>1.026386281087213e-10</v>
       </c>
       <c r="F22">
-        <v>3.234963506164682e-06</v>
+        <v>1.078321168721561e-07</v>
       </c>
       <c r="G22">
         <v>151050.6123992025</v>
       </c>
       <c r="H22">
-        <v>0.999409718293929</v>
+        <v>0.9999395607821679</v>
       </c>
       <c r="I22">
         <v>331.3103860976593</v>
@@ -1964,19 +1964,19 @@
         <v>1.751112310064584e-06</v>
       </c>
       <c r="K22">
-        <v>8.761657701088411e-05</v>
+        <v>2.336442053623576e-05</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.9999702575174936</v>
       </c>
       <c r="M22">
-        <v>0.9999890479278737</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>4.494578543758207e-06</v>
+        <v>2.633542115483324e-06</v>
       </c>
       <c r="O22">
-        <v>2.468414331327388e-08</v>
+        <v>2.75826953621822e-06</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="W22">
-        <v>0.999409718293929</v>
+        <v>0.9999098200972739</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2020,13 +2020,13 @@
         <v>8.119608707754666e-11</v>
       </c>
       <c r="F23">
-        <v>2.559137659761005e-06</v>
+        <v>8.530458865870017e-08</v>
       </c>
       <c r="G23">
         <v>190940.5759520105</v>
       </c>
       <c r="H23">
-        <v>0.9994956800493747</v>
+        <v>0.999948326112743</v>
       </c>
       <c r="I23">
         <v>301.0901784370148</v>
@@ -2035,19 +2035,19 @@
         <v>2.141751266667246e-06</v>
       </c>
       <c r="K23">
-        <v>0.0001071621241627776</v>
+        <v>2.857656644340737e-05</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.9999636236088491</v>
       </c>
       <c r="M23">
-        <v>0.9999866047344796</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>5.497231236341734e-06</v>
+        <v>3.221033927543985e-06</v>
       </c>
       <c r="O23">
-        <v>2.468414340694533e-08</v>
+        <v>2.758269558224372e-06</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="W23">
-        <v>0.9994956800493747</v>
+        <v>0.9999119516013015</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2091,13 +2091,13 @@
         <v>6.472908254021182e-11</v>
       </c>
       <c r="F24">
-        <v>2.040130735022111e-06</v>
+        <v>6.800435783407038e-08</v>
       </c>
       <c r="G24">
         <v>239515.6400062521</v>
       </c>
       <c r="H24">
-        <v>0.999566866701544</v>
+        <v>0.9999555911421185</v>
       </c>
       <c r="I24">
         <v>273.6264824626152</v>
@@ -2106,19 +2106,19 @@
         <v>2.639758229302488e-06</v>
       </c>
       <c r="K24">
-        <v>0.0001320798094208282</v>
+        <v>3.522128251222086e-05</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.9999551668051208</v>
       </c>
       <c r="M24">
-        <v>0.9999834900238224</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>6.775465302790619e-06</v>
+        <v>3.969999200853878e-06</v>
       </c>
       <c r="O24">
-        <v>2.468414355362264e-08</v>
+        <v>2.758269592683144e-06</v>
       </c>
       <c r="P24">
         <v>1</v>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="W24">
-        <v>0.999566866701544</v>
+        <v>0.9999107599382302</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2162,13 +2162,13 @@
         <v>5.19510914822534e-11</v>
       </c>
       <c r="F25">
-        <v>1.637394109286934e-06</v>
+        <v>5.457980364289781e-08</v>
       </c>
       <c r="G25">
         <v>298427.3706151568</v>
       </c>
       <c r="H25">
-        <v>0.9996262956871964</v>
+        <v>0.9999616611803521</v>
       </c>
       <c r="I25">
         <v>248.6678652008114</v>
@@ -2177,19 +2177,19 @@
         <v>3.275594601362588e-06</v>
       </c>
       <c r="K25">
-        <v>0.0001638937634080914</v>
+        <v>4.370500357549105e-05</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.9999443701627525</v>
       </c>
       <c r="M25">
-        <v>0.999979513279574</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>8.407466002447047e-06</v>
+        <v>4.926249610808816e-06</v>
       </c>
       <c r="O25">
-        <v>2.468414378530263e-08</v>
+        <v>2.758269647111521e-06</v>
       </c>
       <c r="P25">
         <v>1</v>
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="W25">
-        <v>0.9996262956871964</v>
+        <v>0.9999060334758869</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2233,13 +2233,13 @@
         <v>4.19409704133572e-11</v>
       </c>
       <c r="F26">
-        <v>1.321895188979192e-06</v>
+        <v>4.406317296597308e-08</v>
       </c>
       <c r="G26">
         <v>369653.5268220407</v>
       </c>
       <c r="H26">
-        <v>0.9996762820954816</v>
+        <v>0.9999667706839609</v>
       </c>
       <c r="I26">
         <v>225.9858279323433</v>
@@ -2248,19 +2248,19 @@
         <v>4.088506704298104e-06</v>
       </c>
       <c r="K26">
-        <v>0.000204567668480064</v>
+        <v>5.455137826135039e-05</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.9999305677741033</v>
       </c>
       <c r="M26">
-        <v>0.99997442904144</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>1.049396683669712e-05</v>
+        <v>6.148808693377221e-06</v>
       </c>
       <c r="O26">
-        <v>2.468414415404737e-08</v>
+        <v>2.758269733740401e-06</v>
       </c>
       <c r="P26">
         <v>1</v>
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="W26">
-        <v>0.9996762820954816</v>
+        <v>0.9998973407652495</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2304,13 +2304,13 @@
         <v>3.40326572343741e-11</v>
       </c>
       <c r="F27">
-        <v>1.072641033884365e-06</v>
+        <v>3.575470112947884e-08</v>
       </c>
       <c r="G27">
         <v>455551.4876451428</v>
       </c>
       <c r="H27">
-        <v>0.9997186088237384</v>
+        <v>0.9999711003623295</v>
       </c>
       <c r="I27">
         <v>205.3727142629607</v>
@@ -2319,19 +2319,19 @@
         <v>5.12923820423864e-06</v>
       </c>
       <c r="K27">
-        <v>0.0002566404744834835</v>
+        <v>6.843745986226227e-05</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.9999128988332283</v>
       </c>
       <c r="M27">
-        <v>0.9999679199406896</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>1.3165211532175e-05</v>
+        <v>7.713991132133787e-06</v>
       </c>
       <c r="O27">
-        <v>2.468414474496356e-08</v>
+        <v>2.758269872563824e-06</v>
       </c>
       <c r="P27">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="W27">
-        <v>0.9997186088237384</v>
+        <v>0.9998840017127499</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2375,13 +2375,13 @@
         <v>2.773841210272067e-11</v>
       </c>
       <c r="F28">
-        <v>8.74259063324653e-07</v>
+        <v>2.914196877748844e-08</v>
       </c>
       <c r="G28">
         <v>558922.6800086264</v>
       </c>
       <c r="H28">
-        <v>0.9997546612564258</v>
+        <v>0.9999747907445553</v>
       </c>
       <c r="I28">
         <v>186.6398090076832</v>
@@ -2390,19 +2390,19 @@
         <v>6.46352412286314e-06</v>
       </c>
       <c r="K28">
-        <v>0.0003234012209369135</v>
+        <v>8.624032558317693e-05</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.9998902485014147</v>
       </c>
       <c r="M28">
-        <v>0.9999595748473828</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>1.658992211562536e-05</v>
+        <v>9.720657489624233e-06</v>
       </c>
       <c r="O28">
-        <v>2.468414569775607e-08</v>
+        <v>2.758270096402534e-06</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="W28">
-        <v>0.9997546612564258</v>
+        <v>0.9998650420127236</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2446,13 +2446,13 @@
         <v>2.269612593133847e-11</v>
       </c>
       <c r="F29">
-        <v>7.153363258268178e-07</v>
+        <v>2.384454419422726e-08</v>
       </c>
       <c r="G29">
         <v>683095.7705530341</v>
       </c>
       <c r="H29">
-        <v>0.9997855290728418</v>
+        <v>0.9999779524497932</v>
       </c>
       <c r="I29">
         <v>169.6156104837871</v>
@@ -2461,19 +2461,19 @@
         <v>8.176553442485585e-06</v>
       </c>
       <c r="K29">
-        <v>0.0004091123226417875</v>
+        <v>0.0001090966193711433</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.9998611724364979</v>
       </c>
       <c r="M29">
-        <v>0.9999488609596697</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>2.098675307875176e-05</v>
+        <v>1.229692563208111e-05</v>
       </c>
       <c r="O29">
-        <v>2.468414724255042e-08</v>
+        <v>2.75827045931972e-06</v>
       </c>
       <c r="P29">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <v>0.9997855290728418</v>
+        <v>0.9998391279470987</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2517,13 +2517,13 @@
         <v>1.863343535955882e-11</v>
       </c>
       <c r="F30">
-        <v>5.872884750447032e-07</v>
+        <v>1.957628250149011e-08</v>
       </c>
       <c r="G30">
         <v>832032.7053209274</v>
       </c>
       <c r="H30">
-        <v>0.9998120800729065</v>
+        <v>0.9999806736408257</v>
       </c>
       <c r="I30">
         <v>154.1442603951844</v>
@@ -2532,19 +2532,19 @@
         <v>1.037868300424866e-05</v>
       </c>
       <c r="K30">
-        <v>0.0005192954635101437</v>
+        <v>0.0001384787902693716</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.9998238002464108</v>
       </c>
       <c r="M30">
-        <v>0.9999350880670612</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>2.663895723606873e-05</v>
+        <v>1.560876400550902e-05</v>
       </c>
       <c r="O30">
-        <v>2.46841497594846e-08</v>
+        <v>2.758271050620866e-06</v>
       </c>
       <c r="P30">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="W30">
-        <v>0.9998120800729065</v>
+        <v>0.9998044772925362</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2588,13 +2588,13 @@
         <v>1.534316539601589e-11</v>
       </c>
       <c r="F31">
-        <v>4.835857711638947e-07</v>
+        <v>1.611952570546316e-08</v>
       </c>
       <c r="G31">
         <v>1010458.222373209</v>
       </c>
       <c r="H31">
-        <v>0.9998350126926998</v>
+        <v>0.9999830253279923</v>
       </c>
       <c r="I31">
         <v>140.0841169336214</v>
@@ -2603,19 +2603,19 @@
         <v>1.321280581364587e-05</v>
       </c>
       <c r="K31">
-        <v>0.0006611002683536978</v>
+        <v>0.0001762934048943195</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.9997757111159986</v>
       </c>
       <c r="M31">
-        <v>0.9999173624664558</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>3.39132979486999e-05</v>
+        <v>1.987107301681635e-05</v>
       </c>
       <c r="O31">
-        <v>2.468415387796037e-08</v>
+        <v>2.758272018170772e-06</v>
       </c>
       <c r="P31">
         <v>1</v>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="W31">
-        <v>0.9998350126926998</v>
+        <v>0.9997587402512211</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2659,13 +2659,13 @@
         <v>1.266622346411515e-11</v>
       </c>
       <c r="F32">
-        <v>3.99213935555883e-07</v>
+        <v>1.33071311851961e-08</v>
       </c>
       <c r="G32">
         <v>1224013.430329876</v>
       </c>
       <c r="H32">
-        <v>0.9998548937983284</v>
+        <v>0.9999850651872525</v>
       </c>
       <c r="I32">
         <v>127.3064580332929</v>
@@ -2674,19 +2674,19 @@
         <v>1.686389931688434e-05</v>
       </c>
       <c r="K32">
-        <v>0.0008437820491063179</v>
+        <v>0.0002250085464283515</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0.9997137728285828</v>
       </c>
       <c r="M32">
-        <v>0.9998945272438617</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>4.328455667756201e-05</v>
+        <v>2.536204492825899e-05</v>
       </c>
       <c r="O32">
-        <v>2.468416064214903e-08</v>
+        <v>2.758273607275698e-06</v>
       </c>
       <c r="P32">
         <v>1</v>
@@ -2710,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="W32">
-        <v>0.9998548937983284</v>
+        <v>0.9996988422905845</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2730,13 +2730,13 @@
         <v>1.047941257128225e-11</v>
       </c>
       <c r="F33">
-        <v>3.302900463384205e-07</v>
+        <v>1.100966821128068e-08</v>
       </c>
       <c r="G33">
         <v>1479436.707561495</v>
       </c>
       <c r="H33">
-        <v>0.9998721867364622</v>
+        <v>0.9999868403952806</v>
       </c>
       <c r="I33">
         <v>115.6943029070325</v>
@@ -2745,19 +2745,19 @@
         <v>2.157141146188025e-05</v>
       </c>
       <c r="K33">
-        <v>0.001079321539069983</v>
+        <v>0.0002878190770853287</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0.9996339332377689</v>
       </c>
       <c r="M33">
-        <v>0.9998650848076163</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>5.536732427606029e-05</v>
+        <v>3.244179156800407e-05</v>
       </c>
       <c r="O33">
-        <v>2.468417178725868e-08</v>
+        <v>2.758276225586557e-06</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="W33">
-        <v>0.9998721867364622</v>
+        <v>0.9996207784503435</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2801,13 +2801,13 @@
         <v>8.686587014053822e-12</v>
       </c>
       <c r="F34">
-        <v>2.737837839553156e-07</v>
+        <v>9.126126131843857e-09</v>
       </c>
       <c r="G34">
         <v>1784777.796682794</v>
       </c>
       <c r="H34">
-        <v>0.9998872727491636</v>
+        <v>0.9999883897954286</v>
       </c>
       <c r="I34">
         <v>105.1413410751223</v>
@@ -2816,19 +2816,19 @@
         <v>2.764531658338609e-05</v>
       </c>
       <c r="K34">
-        <v>0.001383228246124993</v>
+        <v>0.0003688608656333313</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.9995309504092076</v>
       </c>
       <c r="M34">
-        <v>0.9998270964692344</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>7.095721161740183e-05</v>
+        <v>4.157649118207138e-05</v>
       </c>
       <c r="O34">
-        <v>2.468419020105102e-08</v>
+        <v>2.758280551522681e-06</v>
       </c>
       <c r="P34">
         <v>1</v>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="W34">
-        <v>0.9998872727491636</v>
+        <v>0.9995193456503979</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2872,13 +2872,13 @@
         <v>7.212155524051183e-12</v>
       </c>
       <c r="F35">
-        <v>2.273126633802613e-07</v>
+        <v>7.577088779342043e-09</v>
       </c>
       <c r="G35">
         <v>2149652.427756815</v>
       </c>
       <c r="H35">
-        <v>0.9999004675767601</v>
+        <v>0.9999897455783445</v>
       </c>
       <c r="I35">
         <v>95.55095908186888</v>
@@ -2887,19 +2887,19 @@
         <v>3.548691496862573e-05</v>
       </c>
       <c r="K35">
-        <v>0.001775581155107417</v>
+        <v>0.0004734883080286447</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0.999398043734991</v>
       </c>
       <c r="M35">
-        <v>0.9997780523556116</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>9.108423582281514e-05</v>
+        <v>5.336966942743074e-05</v>
       </c>
       <c r="O35">
-        <v>2.468422069532063e-08</v>
+        <v>2.758287715514762e-06</v>
       </c>
       <c r="P35">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="W35">
-        <v>0.9999004675767601</v>
+        <v>0.9993877954860488</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2943,13 +2943,13 @@
         <v>5.996268755206733e-12</v>
       </c>
       <c r="F36">
-        <v>1.88990353375554e-07</v>
+        <v>6.299678445851799e-09</v>
       </c>
       <c r="G36">
         <v>2585545.822670824</v>
       </c>
       <c r="H36">
-        <v>0.9999120344122515</v>
+        <v>0.9999909345942984</v>
       </c>
       <c r="I36">
         <v>86.83535598943621</v>
@@ -2958,19 +2958,19 @@
         <v>4.561577120072551e-05</v>
       </c>
       <c r="K36">
-        <v>0.002282376582785733</v>
+        <v>0.0006086337554095288</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.9992264431604002</v>
       </c>
       <c r="M36">
-        <v>0.9997147029271518</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>0.0001170819628857516</v>
+        <v>6.860271262837008e-05</v>
       </c>
       <c r="O36">
-        <v>2.468427129620936e-08</v>
+        <v>2.758299603137282e-06</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="W36">
-        <v>0.9999120344122515</v>
+        <v>0.9992173847673053</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3014,13 +3014,13 @@
         <v>4.991228394730075e-12</v>
       </c>
       <c r="F37">
-        <v>1.573134988786228e-07</v>
+        <v>5.243783295954095e-09</v>
       </c>
       <c r="G37">
         <v>3106174.754095738</v>
       </c>
       <c r="H37">
-        <v>0.9999221940435962</v>
+        <v>0.9999919793813575</v>
       </c>
       <c r="I37">
         <v>78.91473955119022</v>
@@ -3029,19 +3029,19 @@
         <v>5.870460149883951e-05</v>
       </c>
       <c r="K37">
-        <v>0.002937273759400751</v>
+        <v>0.0007832730025068671</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.9990048070640856</v>
       </c>
       <c r="M37">
-        <v>0.9996328407800749</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>0.0001506770529794452</v>
+        <v>8.828733573014365e-05</v>
       </c>
       <c r="O37">
-        <v>2.468435540327206e-08</v>
+        <v>2.758319362335936e-06</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="W37">
-        <v>0.9999221940435962</v>
+        <v>0.9989967944275061</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3085,13 +3085,13 @@
         <v>4.158788085411252e-12</v>
       </c>
       <c r="F38">
-        <v>1.310766514915521e-07</v>
+        <v>4.369221716385071e-09</v>
       </c>
       <c r="G38">
         <v>3727919.603795642</v>
       </c>
       <c r="H38">
-        <v>0.9999311328211566</v>
+        <v>0.9999928989735999</v>
       </c>
       <c r="I38">
         <v>71.71659570543805</v>
@@ -3100,19 +3100,19 @@
         <v>7.562445560233146e-05</v>
       </c>
       <c r="K38">
-        <v>0.003783855495792548</v>
+        <v>0.001009028132211346</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0.9987184709374901</v>
       </c>
       <c r="M38">
-        <v>0.9995270180630259</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>0.0001941052287623391</v>
+        <v>0.000113733532477933</v>
       </c>
       <c r="O38">
-        <v>2.468449540360854e-08</v>
+        <v>2.758352252492501e-06</v>
       </c>
       <c r="P38">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="W38">
-        <v>0.9999311328211566</v>
+        <v>0.9987113790112617</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3156,13 +3156,13 @@
         <v>3.468109238631446e-12</v>
       </c>
       <c r="F39">
-        <v>1.093078408109783e-07</v>
+        <v>3.643594693699275e-09</v>
       </c>
       <c r="G39">
         <v>4470340.051270776</v>
       </c>
       <c r="H39">
-        <v>0.9999390089419945</v>
+        <v>0.9999937095389535</v>
       </c>
       <c r="I39">
         <v>65.17502470170267</v>
@@ -3171,19 +3171,19 @@
         <v>9.750323113378348e-05</v>
       </c>
       <c r="K39">
-        <v>0.004878555938612582</v>
+        <v>0.001300948250296689</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0.9983484783246398</v>
       </c>
       <c r="M39">
-        <v>0.9993901805076735</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>0.0002502614641460875</v>
+        <v>0.0001466375766480981</v>
       </c>
       <c r="O39">
-        <v>2.468472872364632e-08</v>
+        <v>2.758407066164848e-06</v>
       </c>
       <c r="P39">
         <v>1</v>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="W39">
-        <v>0.9999390089419945</v>
+        <v>0.9983421982524261</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3227,13 +3227,13 @@
         <v>2.894200772787367e-12</v>
       </c>
       <c r="F40">
-        <v>9.121939811552486e-08</v>
+        <v>3.040646603850829e-09</v>
       </c>
       <c r="G40">
         <v>5356790.647493682</v>
       </c>
       <c r="H40">
-        <v>0.9999459574302738</v>
+        <v>0.9999944248849535</v>
       </c>
       <c r="I40">
         <v>59.23013778169977</v>
@@ -3242,19 +3242,19 @@
         <v>0.0001258014549196122</v>
       </c>
       <c r="K40">
-        <v>0.006294452274531121</v>
+        <v>0.001678520606541633</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0.9978703319152019</v>
       </c>
       <c r="M40">
-        <v>0.9992131934656836</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>0.0003228944921496214</v>
+        <v>0.0001891959914939188</v>
       </c>
       <c r="O40">
-        <v>2.468511796548273e-08</v>
+        <v>2.75849851040893e-06</v>
       </c>
       <c r="P40">
         <v>1</v>
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="W40">
-        <v>0.9999459574302738</v>
+        <v>0.9978647686733</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3298,13 +3298,13 @@
         <v>2.416718851929949e-12</v>
       </c>
       <c r="F41">
-        <v>7.617012653727481e-08</v>
+        <v>2.53900421790916e-09</v>
       </c>
       <c r="G41">
         <v>6415155.664158217</v>
       </c>
       <c r="H41">
-        <v>0.9999520941058225</v>
+        <v>0.9999950568619375</v>
       </c>
       <c r="I41">
         <v>53.82750889156914</v>
@@ -3313,19 +3313,19 @@
         <v>0.0001624104268548831</v>
       </c>
       <c r="K41">
-        <v>0.008126175340162278</v>
+        <v>0.002166980090709941</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0.9972523855243344</v>
       </c>
       <c r="M41">
-        <v>0.9989842280824797</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>0.0004168587106772419</v>
+        <v>0.0002442531507874464</v>
       </c>
       <c r="O41">
-        <v>2.468576788849312e-08</v>
+        <v>2.758651196253149e-06</v>
       </c>
       <c r="P41">
         <v>1</v>
@@ -3349,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="W41">
-        <v>0.9999520941058225</v>
+        <v>0.9972474559681095</v>
       </c>
     </row>
   </sheetData>
